--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.121219.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.121219.xlsx_with_dialog_acts.xlsx
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3245,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4089,12 +4089,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5381,12 +5381,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5875,12 +5875,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6521,12 +6521,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6559,12 +6559,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6711,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7281,12 +7281,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7623,12 +7623,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8311,12 +8311,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8577,12 +8577,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8805,12 +8805,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9185,12 +9185,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9413,12 +9413,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9489,12 +9489,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10899,12 +10899,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10937,12 +10937,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11317,12 +11317,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11469,12 +11469,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12233,12 +12233,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13035,12 +13035,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13529,12 +13529,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13719,12 +13719,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13947,12 +13947,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14023,12 +14023,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14213,12 +14213,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14251,12 +14251,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14475,12 +14475,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14551,12 +14551,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14893,12 +14893,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15235,12 +15235,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15387,12 +15387,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15653,12 +15653,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16033,12 +16033,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16223,12 +16223,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16641,12 +16641,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16755,12 +16755,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16793,12 +16793,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16869,12 +16869,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16945,12 +16945,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17059,12 +17059,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17705,12 +17705,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17933,12 +17933,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18009,12 +18009,12 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18123,12 +18123,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18199,12 +18199,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18313,12 +18313,12 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18541,12 +18541,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19115,12 +19115,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19571,12 +19571,12 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19647,12 +19647,12 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20445,12 +20445,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20981,12 +20981,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21137,12 +21137,12 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21517,12 +21517,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21935,12 +21935,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22011,12 +22011,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22315,12 +22315,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22429,12 +22429,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22809,12 +22809,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22961,12 +22961,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23037,12 +23037,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23189,12 +23189,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23227,12 +23227,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23417,12 +23417,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23455,12 +23455,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23797,12 +23797,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24519,12 +24519,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25245,12 +25245,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25549,12 +25549,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25587,12 +25587,12 @@
       <c r="H661" t="inlineStr"/>
       <c r="I661" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26271,12 +26271,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26385,12 +26385,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26613,12 +26613,12 @@
       <c r="H688" t="inlineStr"/>
       <c r="I688" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26803,12 +26803,12 @@
       <c r="H693" t="inlineStr"/>
       <c r="I693" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27145,12 +27145,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27297,12 +27297,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27643,12 +27643,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28209,12 +28209,12 @@
       <c r="H730" t="inlineStr"/>
       <c r="I730" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
